--- a/ERENOA.xlsx
+++ b/ERENOA.xlsx
@@ -19,12 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>おはよう</t>
-    <phoneticPr fontId="1"/>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -347,17 +342,96 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="J8"/>
+  <dimension ref="C3:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="8" spans="10:10" x14ac:dyDescent="0.4">
-      <c r="J8" t="s">
-        <v>0</v>
+    <row r="3" spans="3:11" x14ac:dyDescent="0.4">
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>7</v>
+      </c>
+      <c r="G3">
+        <v>6</v>
+      </c>
+      <c r="H3">
+        <v>65</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="J3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="3:11" x14ac:dyDescent="0.4">
+      <c r="C4">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>7</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>7</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>7</v>
+      </c>
+      <c r="J4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="3:11" x14ac:dyDescent="0.4">
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>45</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="3:11" x14ac:dyDescent="0.4">
+      <c r="K6">
+        <f>SUM(C3:J5)</f>
+        <v>214</v>
       </c>
     </row>
   </sheetData>

--- a/ERENOA.xlsx
+++ b/ERENOA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,10 +16,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -348,11 +344,11 @@
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="3" spans="3:11" x14ac:dyDescent="0.4">
+    <row r="3" spans="3:11" x14ac:dyDescent="0.55000000000000004">
       <c r="C3">
-        <v>6</v>
+        <v>10006</v>
       </c>
       <c r="D3">
         <v>5</v>
@@ -376,7 +372,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="3:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="3:11" x14ac:dyDescent="0.55000000000000004">
       <c r="C4">
         <v>7</v>
       </c>
@@ -402,7 +398,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="3:11" x14ac:dyDescent="0.4">
+    <row r="5" spans="3:11" x14ac:dyDescent="0.55000000000000004">
       <c r="C5">
         <v>1</v>
       </c>
@@ -428,10 +424,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="3:11" x14ac:dyDescent="0.4">
+    <row r="6" spans="3:11" x14ac:dyDescent="0.55000000000000004">
       <c r="K6">
         <f>SUM(C3:J5)</f>
-        <v>214</v>
+        <v>10214</v>
       </c>
     </row>
   </sheetData>

--- a/ERENOA.xlsx
+++ b/ERENOA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -341,12 +341,12 @@
   <dimension ref="C3:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="3" spans="3:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C3">
         <v>10006</v>
       </c>
@@ -372,7 +372,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="3:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C4">
         <v>7</v>
       </c>
@@ -398,7 +398,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="3:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C5">
         <v>1</v>
       </c>
@@ -424,9 +424,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="3:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="3:11" x14ac:dyDescent="0.4">
       <c r="K6">
-        <f>SUM(C3:J5)</f>
+        <f>SUMPRODUCT(C3:J5)</f>
         <v>10214</v>
       </c>
     </row>
